--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cxcl1-Cxcr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cxcl1-Cxcr2.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>31.588123</v>
+        <v>20.268639</v>
       </c>
       <c r="H2">
-        <v>94.76436899999999</v>
+        <v>60.80591700000001</v>
       </c>
       <c r="I2">
-        <v>0.1477436777967832</v>
+        <v>0.09537690375401175</v>
       </c>
       <c r="J2">
-        <v>0.1477436777967832</v>
+        <v>0.09537690375401174</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.01295133333333333</v>
+        <v>0.01989833333333333</v>
       </c>
       <c r="N2">
-        <v>0.038854</v>
+        <v>0.059695</v>
       </c>
       <c r="O2">
-        <v>0.3831302015540567</v>
+        <v>0.5455534129646046</v>
       </c>
       <c r="P2">
-        <v>0.3831302015540567</v>
+        <v>0.5455534129646046</v>
       </c>
       <c r="Q2">
-        <v>0.4091083103473333</v>
+        <v>0.4033121350350001</v>
       </c>
       <c r="R2">
-        <v>3.681974793125999</v>
+        <v>3.629809215315</v>
       </c>
       <c r="S2">
-        <v>0.05660506505261916</v>
+        <v>0.05203319536099772</v>
       </c>
       <c r="T2">
-        <v>0.05660506505261916</v>
+        <v>0.05203319536099772</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>31.588123</v>
+        <v>20.268639</v>
       </c>
       <c r="H3">
-        <v>94.76436899999999</v>
+        <v>60.80591700000001</v>
       </c>
       <c r="I3">
-        <v>0.1477436777967832</v>
+        <v>0.09537690375401175</v>
       </c>
       <c r="J3">
-        <v>0.1477436777967832</v>
+        <v>0.09537690375401174</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>0.021853</v>
       </c>
       <c r="O3">
-        <v>0.2154873190549442</v>
+        <v>0.1997148627777118</v>
       </c>
       <c r="P3">
-        <v>0.2154873190549442</v>
+        <v>0.1997148627777118</v>
       </c>
       <c r="Q3">
-        <v>0.2300984173063333</v>
+        <v>0.147643522689</v>
       </c>
       <c r="R3">
-        <v>2.070885755757</v>
+        <v>1.328791704201</v>
       </c>
       <c r="S3">
-        <v>0.03183688903574629</v>
+        <v>0.01904818524539548</v>
       </c>
       <c r="T3">
-        <v>0.03183688903574629</v>
+        <v>0.01904818524539548</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>31.588123</v>
+        <v>20.268639</v>
       </c>
       <c r="H4">
-        <v>94.76436899999999</v>
+        <v>60.80591700000001</v>
       </c>
       <c r="I4">
-        <v>0.1477436777967832</v>
+        <v>0.09537690375401175</v>
       </c>
       <c r="J4">
-        <v>0.1477436777967832</v>
+        <v>0.09537690375401174</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -679,28 +679,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.01356833333333333</v>
+        <v>0.009290999999999999</v>
       </c>
       <c r="N4">
-        <v>0.040705</v>
+        <v>0.027873</v>
       </c>
       <c r="O4">
-        <v>0.4013824793909991</v>
+        <v>0.2547317242576836</v>
       </c>
       <c r="P4">
-        <v>0.4013824793909991</v>
+        <v>0.2547317242576836</v>
       </c>
       <c r="Q4">
-        <v>0.4285981822383333</v>
+        <v>0.188315924949</v>
       </c>
       <c r="R4">
-        <v>3.857383640144999</v>
+        <v>1.694843324541</v>
       </c>
       <c r="S4">
-        <v>0.05930172370841773</v>
+        <v>0.02429552314761855</v>
       </c>
       <c r="T4">
-        <v>0.05930172370841773</v>
+        <v>0.02429552314761855</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>383.223061</v>
       </c>
       <c r="I5">
-        <v>0.5974691231118839</v>
+        <v>0.6011031624655011</v>
       </c>
       <c r="J5">
-        <v>0.5974691231118839</v>
+        <v>0.601103162465501</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.01295133333333333</v>
+        <v>0.01989833333333333</v>
       </c>
       <c r="N5">
-        <v>0.038854</v>
+        <v>0.059695</v>
       </c>
       <c r="O5">
-        <v>0.3831302015540567</v>
+        <v>0.5455534129646046</v>
       </c>
       <c r="P5">
-        <v>0.3831302015540567</v>
+        <v>0.5455534129646046</v>
       </c>
       <c r="Q5">
-        <v>1.654416534677111</v>
+        <v>2.541833402932778</v>
       </c>
       <c r="R5">
-        <v>14.889748812094</v>
+        <v>22.876500626395</v>
       </c>
       <c r="S5">
-        <v>0.2289084655601816</v>
+        <v>0.3279338818268713</v>
       </c>
       <c r="T5">
-        <v>0.2289084655601816</v>
+        <v>0.3279338818268713</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>383.223061</v>
       </c>
       <c r="I6">
-        <v>0.5974691231118839</v>
+        <v>0.6011031624655011</v>
       </c>
       <c r="J6">
-        <v>0.5974691231118839</v>
+        <v>0.601103162465501</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -809,10 +809,10 @@
         <v>0.021853</v>
       </c>
       <c r="O6">
-        <v>0.2154873190549442</v>
+        <v>0.1997148627777118</v>
       </c>
       <c r="P6">
-        <v>0.2154873190549442</v>
+        <v>0.1997148627777118</v>
       </c>
       <c r="Q6">
         <v>0.9305081724481112</v>
@@ -821,10 +821,10 @@
         <v>8.374573552033</v>
       </c>
       <c r="S6">
-        <v>0.1287470195574883</v>
+        <v>0.1200492356070461</v>
       </c>
       <c r="T6">
-        <v>0.1287470195574883</v>
+        <v>0.1200492356070461</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>383.223061</v>
       </c>
       <c r="I7">
-        <v>0.5974691231118839</v>
+        <v>0.6011031624655011</v>
       </c>
       <c r="J7">
-        <v>0.5974691231118839</v>
+        <v>0.601103162465501</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -865,28 +865,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.01356833333333333</v>
+        <v>0.009290999999999999</v>
       </c>
       <c r="N7">
-        <v>0.040705</v>
+        <v>0.027873</v>
       </c>
       <c r="O7">
-        <v>0.4013824793909991</v>
+        <v>0.2547317242576836</v>
       </c>
       <c r="P7">
-        <v>0.4013824793909991</v>
+        <v>0.2547317242576836</v>
       </c>
       <c r="Q7">
-        <v>1.733232744222778</v>
+        <v>1.186841819917</v>
       </c>
       <c r="R7">
-        <v>15.599094698005</v>
+        <v>10.681576379253</v>
       </c>
       <c r="S7">
-        <v>0.239813637994214</v>
+        <v>0.1531200450315836</v>
       </c>
       <c r="T7">
-        <v>0.239813637994214</v>
+        <v>0.1531200450315836</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>24.62302866666666</v>
+        <v>42.02733833333333</v>
       </c>
       <c r="H8">
-        <v>73.86908599999998</v>
+        <v>126.082015</v>
       </c>
       <c r="I8">
-        <v>0.1151666027674058</v>
+        <v>0.1977654939365007</v>
       </c>
       <c r="J8">
-        <v>0.1151666027674058</v>
+        <v>0.1977654939365007</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -927,28 +927,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.01295133333333333</v>
+        <v>0.01989833333333333</v>
       </c>
       <c r="N8">
-        <v>0.038854</v>
+        <v>0.059695</v>
       </c>
       <c r="O8">
-        <v>0.3831302015540567</v>
+        <v>0.5455534129646046</v>
       </c>
       <c r="P8">
-        <v>0.3831302015540567</v>
+        <v>0.5455534129646046</v>
       </c>
       <c r="Q8">
-        <v>0.3189010519382222</v>
+        <v>0.8362739872694444</v>
       </c>
       <c r="R8">
-        <v>2.870109467443999</v>
+        <v>7.526465885424999</v>
       </c>
       <c r="S8">
-        <v>0.04412380373057218</v>
+        <v>0.1078916401836888</v>
       </c>
       <c r="T8">
-        <v>0.04412380373057218</v>
+        <v>0.1078916401836888</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>24.62302866666666</v>
+        <v>42.02733833333333</v>
       </c>
       <c r="H9">
-        <v>73.86908599999998</v>
+        <v>126.082015</v>
       </c>
       <c r="I9">
-        <v>0.1151666027674058</v>
+        <v>0.1977654939365007</v>
       </c>
       <c r="J9">
-        <v>0.1151666027674058</v>
+        <v>0.1977654939365007</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -995,22 +995,22 @@
         <v>0.021853</v>
       </c>
       <c r="O9">
-        <v>0.2154873190549442</v>
+        <v>0.1997148627777118</v>
       </c>
       <c r="P9">
-        <v>0.2154873190549442</v>
+        <v>0.1997148627777118</v>
       </c>
       <c r="Q9">
-        <v>0.1793623484842222</v>
+        <v>0.3061411415327777</v>
       </c>
       <c r="R9">
-        <v>1.614261136358</v>
+        <v>2.755270273795</v>
       </c>
       <c r="S9">
-        <v>0.024816942475014</v>
+        <v>0.03949670848369462</v>
       </c>
       <c r="T9">
-        <v>0.024816942475014</v>
+        <v>0.03949670848369462</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>24.62302866666666</v>
+        <v>42.02733833333333</v>
       </c>
       <c r="H10">
-        <v>73.86908599999998</v>
+        <v>126.082015</v>
       </c>
       <c r="I10">
-        <v>0.1151666027674058</v>
+        <v>0.1977654939365007</v>
       </c>
       <c r="J10">
-        <v>0.1151666027674058</v>
+        <v>0.1977654939365007</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1051,28 +1051,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.01356833333333333</v>
+        <v>0.009290999999999999</v>
       </c>
       <c r="N10">
-        <v>0.040705</v>
+        <v>0.027873</v>
       </c>
       <c r="O10">
-        <v>0.4013824793909991</v>
+        <v>0.2547317242576836</v>
       </c>
       <c r="P10">
-        <v>0.4013824793909991</v>
+        <v>0.2547317242576836</v>
       </c>
       <c r="Q10">
-        <v>0.3340934606255554</v>
+        <v>0.3904760004549999</v>
       </c>
       <c r="R10">
-        <v>3.006841145629999</v>
+        <v>3.514284004094999</v>
       </c>
       <c r="S10">
-        <v>0.04622585656181965</v>
+        <v>0.05037714526911728</v>
       </c>
       <c r="T10">
-        <v>0.04622585656181965</v>
+        <v>0.0503771452691173</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>29.85137933333333</v>
+        <v>22.47397933333333</v>
       </c>
       <c r="H11">
-        <v>89.55413799999999</v>
+        <v>67.421938</v>
       </c>
       <c r="I11">
-        <v>0.139620596323927</v>
+        <v>0.1057544398439867</v>
       </c>
       <c r="J11">
-        <v>0.139620596323927</v>
+        <v>0.1057544398439867</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1113,28 +1113,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.01295133333333333</v>
+        <v>0.01989833333333333</v>
       </c>
       <c r="N11">
-        <v>0.038854</v>
+        <v>0.059695</v>
       </c>
       <c r="O11">
-        <v>0.3831302015540567</v>
+        <v>0.5455534129646046</v>
       </c>
       <c r="P11">
-        <v>0.3831302015540567</v>
+        <v>0.5455534129646046</v>
       </c>
       <c r="Q11">
-        <v>0.3866151642057777</v>
+        <v>0.4471947321011111</v>
       </c>
       <c r="R11">
-        <v>3.479536477852</v>
+        <v>4.024752588909999</v>
       </c>
       <c r="S11">
-        <v>0.05349286721068373</v>
+        <v>0.05769469559304689</v>
       </c>
       <c r="T11">
-        <v>0.05349286721068372</v>
+        <v>0.05769469559304689</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>29.85137933333333</v>
+        <v>22.47397933333333</v>
       </c>
       <c r="H12">
-        <v>89.55413799999999</v>
+        <v>67.421938</v>
       </c>
       <c r="I12">
-        <v>0.139620596323927</v>
+        <v>0.1057544398439867</v>
       </c>
       <c r="J12">
-        <v>0.139620596323927</v>
+        <v>0.1057544398439867</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1181,22 +1181,22 @@
         <v>0.021853</v>
       </c>
       <c r="O12">
-        <v>0.2154873190549442</v>
+        <v>0.1997148627777118</v>
       </c>
       <c r="P12">
-        <v>0.2154873190549442</v>
+        <v>0.1997148627777118</v>
       </c>
       <c r="Q12">
-        <v>0.2174473975237778</v>
+        <v>0.1637079567904444</v>
       </c>
       <c r="R12">
-        <v>1.957026577714</v>
+        <v>1.473371611114</v>
       </c>
       <c r="S12">
-        <v>0.03008646798669562</v>
+        <v>0.02112073344157557</v>
       </c>
       <c r="T12">
-        <v>0.03008646798669562</v>
+        <v>0.02112073344157557</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>29.85137933333333</v>
+        <v>22.47397933333333</v>
       </c>
       <c r="H13">
-        <v>89.55413799999999</v>
+        <v>67.421938</v>
       </c>
       <c r="I13">
-        <v>0.139620596323927</v>
+        <v>0.1057544398439867</v>
       </c>
       <c r="J13">
-        <v>0.139620596323927</v>
+        <v>0.1057544398439867</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1237,28 +1237,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.01356833333333333</v>
+        <v>0.009290999999999999</v>
       </c>
       <c r="N13">
-        <v>0.040705</v>
+        <v>0.027873</v>
       </c>
       <c r="O13">
-        <v>0.4013824793909991</v>
+        <v>0.2547317242576836</v>
       </c>
       <c r="P13">
-        <v>0.4013824793909991</v>
+        <v>0.2547317242576836</v>
       </c>
       <c r="Q13">
-        <v>0.4050334652544444</v>
+        <v>0.208805741986</v>
       </c>
       <c r="R13">
-        <v>3.645301187289999</v>
+        <v>1.879251677874</v>
       </c>
       <c r="S13">
-        <v>0.05604126112654761</v>
+        <v>0.0269390108093642</v>
       </c>
       <c r="T13">
-        <v>0.05604126112654761</v>
+        <v>0.0269390108093642</v>
       </c>
     </row>
   </sheetData>
